--- a/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45005</v>
       </c>
       <c r="B2" t="n">
-        <v>35.29163038830706</v>
+        <v>35.23713297138899</v>
       </c>
       <c r="C2" t="n">
-        <v>26.75344433740359</v>
+        <v>25.90407928028796</v>
       </c>
       <c r="D2" t="n">
-        <v>44.34227872489303</v>
+        <v>44.50100438634458</v>
       </c>
       <c r="E2" t="n">
         <v>33</v>
@@ -496,13 +496,13 @@
         <v>45015</v>
       </c>
       <c r="B3" t="n">
-        <v>35.41821709353852</v>
+        <v>35.45406833344541</v>
       </c>
       <c r="C3" t="n">
-        <v>26.16469531013749</v>
+        <v>26.2545724749581</v>
       </c>
       <c r="D3" t="n">
-        <v>44.08660086145976</v>
+        <v>44.09650444648892</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -516,13 +516,13 @@
         <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>27.84447411448865</v>
+        <v>27.88225280534188</v>
       </c>
       <c r="C4" t="n">
-        <v>19.07169777424074</v>
+        <v>19.33793082906002</v>
       </c>
       <c r="D4" t="n">
-        <v>36.64594431374055</v>
+        <v>36.32052453628815</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -536,13 +536,13 @@
         <v>45023</v>
       </c>
       <c r="B5" t="n">
-        <v>28.04322561326977</v>
+        <v>28.06872557246899</v>
       </c>
       <c r="C5" t="n">
-        <v>18.2140354871254</v>
+        <v>18.29808449577068</v>
       </c>
       <c r="D5" t="n">
-        <v>37.48778901509397</v>
+        <v>37.3313167714912</v>
       </c>
       <c r="E5" t="n">
         <v>42</v>
@@ -556,13 +556,13 @@
         <v>45027</v>
       </c>
       <c r="B6" t="n">
-        <v>40.35563651068981</v>
+        <v>40.35212971663067</v>
       </c>
       <c r="C6" t="n">
-        <v>30.59077519027656</v>
+        <v>30.40896515023836</v>
       </c>
       <c r="D6" t="n">
-        <v>49.4705892687114</v>
+        <v>49.63667275419882</v>
       </c>
       <c r="E6" t="n">
         <v>36</v>
@@ -576,13 +576,13 @@
         <v>45033</v>
       </c>
       <c r="B7" t="n">
-        <v>32.85543709881122</v>
+        <v>32.81990368259886</v>
       </c>
       <c r="C7" t="n">
-        <v>23.60219906252696</v>
+        <v>22.87537618339763</v>
       </c>
       <c r="D7" t="n">
-        <v>41.97107101147036</v>
+        <v>42.44383448345783</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
@@ -596,13 +596,13 @@
         <v>45040</v>
       </c>
       <c r="B8" t="n">
-        <v>29.75503694753722</v>
+        <v>29.78392560940853</v>
       </c>
       <c r="C8" t="n">
-        <v>19.67758331991116</v>
+        <v>20.22733765179817</v>
       </c>
       <c r="D8" t="n">
-        <v>40.35484102870274</v>
+        <v>40.38284484296157</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
@@ -616,13 +616,13 @@
         <v>45047</v>
       </c>
       <c r="B9" t="n">
-        <v>29.11731087978204</v>
+        <v>29.15202073196877</v>
       </c>
       <c r="C9" t="n">
-        <v>19.02568674195396</v>
+        <v>19.56894587480081</v>
       </c>
       <c r="D9" t="n">
-        <v>38.39593795838314</v>
+        <v>39.37681354701775</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
@@ -636,13 +636,13 @@
         <v>45059</v>
       </c>
       <c r="B10" t="n">
-        <v>22.03798239383207</v>
+        <v>22.03504839300268</v>
       </c>
       <c r="C10" t="n">
-        <v>12.00026475723291</v>
+        <v>12.38356941947933</v>
       </c>
       <c r="D10" t="n">
-        <v>31.44008973299642</v>
+        <v>32.76041825040365</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -717,25 +717,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>99.98613096010973</v>
+        <v>99.56961469898562</v>
       </c>
       <c r="C2" t="n">
-        <v>9.999306523960035</v>
+        <v>9.978457531050859</v>
       </c>
       <c r="D2" t="n">
-        <v>8.696198388718365</v>
+        <v>8.672235382856904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3873039148352224</v>
+        <v>0.3864600135195033</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2735497718611843</v>
+        <v>0.2737327881447329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3123567472749176</v>
+        <v>0.3116746344069953</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>18.97156941325407</v>
+        <v>18.94103307037976</v>
       </c>
       <c r="C3" t="n">
-        <v>4.355636510689806</v>
+        <v>4.352129716630671</v>
       </c>
       <c r="D3" t="n">
-        <v>4.355636510689806</v>
+        <v>4.352129716630671</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1209899030747168</v>
+        <v>0.1208924921286297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1209899030747168</v>
+        <v>0.1208924921286297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1140881461993972</v>
+        <v>0.1140015277316544</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -769,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>207.8849841564065</v>
+        <v>208.9200913879093</v>
       </c>
       <c r="C4" t="n">
-        <v>14.41821709353852</v>
+        <v>14.45406833344541</v>
       </c>
       <c r="D4" t="n">
-        <v>14.41821709353852</v>
+        <v>14.45406833344541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6865817663589773</v>
+        <v>0.6882889682593051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6865817663589773</v>
+        <v>0.6882889682593051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5111192035591573</v>
+        <v>0.51206471951933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -795,22 +795,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>194.7915512820891</v>
+        <v>194.0804071751795</v>
       </c>
       <c r="C5" t="n">
-        <v>13.95677438673023</v>
+        <v>13.93127442753101</v>
       </c>
       <c r="D5" t="n">
-        <v>13.95677438673023</v>
+        <v>13.93127442753101</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3323041520650056</v>
+        <v>0.3316970101793098</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3323041520650056</v>
+        <v>0.3316970101793098</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3985188935698046</v>
+        <v>0.397646005795339</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>308.8325618639447</v>
+        <v>309.6268766076485</v>
       </c>
       <c r="C6" t="n">
-        <v>17.57363257451187</v>
+        <v>17.59621767902547</v>
       </c>
       <c r="D6" t="n">
-        <v>17.40324586032829</v>
+        <v>17.4236022061696</v>
       </c>
       <c r="E6" t="n">
-        <v>1.442469059265918</v>
+        <v>1.444869876104102</v>
       </c>
       <c r="F6" t="n">
-        <v>1.442469059265918</v>
+        <v>1.444869876104102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8070575199116924</v>
+        <v>0.8075897789406884</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>

--- a/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45005</v>
+        <v>44998</v>
       </c>
       <c r="B2" t="n">
-        <v>35.23713297138899</v>
+        <v>35.47689688854</v>
       </c>
       <c r="C2" t="n">
-        <v>25.90407928028796</v>
+        <v>28.00012122289686</v>
       </c>
       <c r="D2" t="n">
-        <v>44.50100438634458</v>
+        <v>42.57745610960472</v>
       </c>
       <c r="E2" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45003</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45015</v>
+        <v>45005</v>
       </c>
       <c r="B3" t="n">
-        <v>35.45406833344541</v>
+        <v>39.06352885657937</v>
       </c>
       <c r="C3" t="n">
-        <v>26.2545724749581</v>
+        <v>31.84325791823782</v>
       </c>
       <c r="D3" t="n">
-        <v>44.09650444648892</v>
+        <v>46.25823245160734</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45010</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45017</v>
+        <v>45015</v>
       </c>
       <c r="B4" t="n">
-        <v>27.88225280534188</v>
+        <v>36.07844662951427</v>
       </c>
       <c r="C4" t="n">
-        <v>19.33793082906002</v>
+        <v>28.37926806875966</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32052453628815</v>
+        <v>42.83079367515757</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45010</v>
@@ -533,121 +533,141 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45023</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>28.06872557246899</v>
+        <v>28.8733784509327</v>
       </c>
       <c r="C5" t="n">
-        <v>18.29808449577068</v>
+        <v>21.16174788543573</v>
       </c>
       <c r="D5" t="n">
-        <v>37.3313167714912</v>
+        <v>35.62437715357094</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45017</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45027</v>
+        <v>45023</v>
       </c>
       <c r="B6" t="n">
-        <v>40.35212971663067</v>
+        <v>30.79547124704722</v>
       </c>
       <c r="C6" t="n">
-        <v>30.40896515023836</v>
+        <v>21.29166728926964</v>
       </c>
       <c r="D6" t="n">
-        <v>49.63667275419882</v>
+        <v>38.89181765902031</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45024</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B7" t="n">
-        <v>32.81990368259886</v>
+        <v>40.71305499600133</v>
       </c>
       <c r="C7" t="n">
-        <v>22.87537618339763</v>
+        <v>32.29863333063707</v>
       </c>
       <c r="D7" t="n">
-        <v>42.44383448345783</v>
+        <v>49.5445551999128</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45031</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B8" t="n">
-        <v>29.78392560940853</v>
+        <v>35.45857421029572</v>
       </c>
       <c r="C8" t="n">
-        <v>20.22733765179817</v>
+        <v>27.59917079715473</v>
       </c>
       <c r="D8" t="n">
-        <v>40.38284484296157</v>
+        <v>44.4257924879267</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45038</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45047</v>
+        <v>45040</v>
       </c>
       <c r="B9" t="n">
-        <v>29.15202073196877</v>
+        <v>31.69386261529566</v>
       </c>
       <c r="C9" t="n">
-        <v>19.56894587480081</v>
+        <v>22.47614187293818</v>
       </c>
       <c r="D9" t="n">
-        <v>39.37681354701775</v>
+        <v>40.70908794577484</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45045</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.18940814280376</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.27699005250606</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38.93298146605154</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45059</v>
       </c>
-      <c r="B10" t="n">
-        <v>22.03504839300268</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.38356941947933</v>
-      </c>
-      <c r="D10" t="n">
-        <v>32.76041825040365</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="B11" t="n">
+        <v>22.2741006098851</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.92857224006805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.45398296546001</v>
+      </c>
+      <c r="E11" t="n">
         <v>37</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -717,25 +737,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>99.56961469898562</v>
+        <v>128.2861638427424</v>
       </c>
       <c r="C2" t="n">
-        <v>9.978457531050859</v>
+        <v>11.32634821302711</v>
       </c>
       <c r="D2" t="n">
-        <v>8.672235382856904</v>
+        <v>10.5099321301654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3864600135195033</v>
+        <v>0.4204423062472913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2737327881447329</v>
+        <v>0.2287631111186957</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3116746344069953</v>
+        <v>0.3405842367015883</v>
       </c>
       <c r="H2" t="n">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +763,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>18.94103307037976</v>
+        <v>22.21288739533312</v>
       </c>
       <c r="C3" t="n">
-        <v>4.352129716630671</v>
+        <v>4.713054996001333</v>
       </c>
       <c r="D3" t="n">
-        <v>4.352129716630671</v>
+        <v>4.713054996001333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1208924921286297</v>
+        <v>0.1309181943333703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1208924921286297</v>
+        <v>0.1309181943333703</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1140015277316544</v>
+        <v>0.1228749134354511</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -769,22 +789,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>208.9200913879093</v>
+        <v>227.3595527591104</v>
       </c>
       <c r="C4" t="n">
-        <v>14.45406833344541</v>
+        <v>15.07844662951427</v>
       </c>
       <c r="D4" t="n">
-        <v>14.45406833344541</v>
+        <v>15.07844662951427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6882889682593051</v>
+        <v>0.7180212680721083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6882889682593051</v>
+        <v>0.7180212680721083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.51206471951933</v>
+        <v>0.5283411697373513</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -795,22 +815,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>194.0804071751795</v>
+        <v>125.5414645757455</v>
       </c>
       <c r="C5" t="n">
-        <v>13.93127442753101</v>
+        <v>11.20452875295278</v>
       </c>
       <c r="D5" t="n">
-        <v>13.93127442753101</v>
+        <v>11.20452875295278</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3316970101793098</v>
+        <v>0.2667744941179232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3316970101793098</v>
+        <v>0.2667744941179232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397646005795339</v>
+        <v>0.307835873880884</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -821,22 +841,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>309.6268766076485</v>
+        <v>326.275020401824</v>
       </c>
       <c r="C6" t="n">
-        <v>17.59621767902547</v>
+        <v>18.06308446533493</v>
       </c>
       <c r="D6" t="n">
-        <v>17.4236022061696</v>
+        <v>17.7996389205238</v>
       </c>
       <c r="E6" t="n">
-        <v>1.444869876104102</v>
+        <v>1.503584793590252</v>
       </c>
       <c r="F6" t="n">
-        <v>1.444869876104102</v>
+        <v>1.503584793590252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8075897789406884</v>
+        <v>0.8145199453672023</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>

--- a/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426106/OBACON4426106_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="B2" t="n">
-        <v>35.47689688854</v>
+        <v>35.23713297138882</v>
       </c>
       <c r="C2" t="n">
-        <v>28.00012122289686</v>
+        <v>26.23422578774902</v>
       </c>
       <c r="D2" t="n">
-        <v>42.57745610960472</v>
+        <v>44.60434640501247</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44996</v>
+        <v>45003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45005</v>
+        <v>45015</v>
       </c>
       <c r="B3" t="n">
-        <v>39.06352885657937</v>
+        <v>35.45390925966646</v>
       </c>
       <c r="C3" t="n">
-        <v>31.84325791823782</v>
+        <v>26.30837526403261</v>
       </c>
       <c r="D3" t="n">
-        <v>46.25823245160734</v>
+        <v>44.520085295474</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45003</v>
+        <v>45010</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45015</v>
+        <v>45017</v>
       </c>
       <c r="B4" t="n">
-        <v>36.07844662951427</v>
+        <v>27.88211322249021</v>
       </c>
       <c r="C4" t="n">
-        <v>28.37926806875966</v>
+        <v>19.40495724542624</v>
       </c>
       <c r="D4" t="n">
-        <v>42.83079367515757</v>
+        <v>36.44511706723725</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45010</v>
@@ -533,141 +533,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28.06871582422911</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.60728402988895</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.81749593366363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>45017</v>
-      </c>
-      <c r="B5" t="n">
-        <v>28.8733784509327</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21.16174788543573</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35.62437715357094</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="B6" t="n">
-        <v>30.79547124704722</v>
+        <v>40.35212971666679</v>
       </c>
       <c r="C6" t="n">
-        <v>21.29166728926964</v>
+        <v>30.35836257947145</v>
       </c>
       <c r="D6" t="n">
-        <v>38.89181765902031</v>
+        <v>50.41833057307554</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45017</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45027</v>
+        <v>45033</v>
       </c>
       <c r="B7" t="n">
-        <v>40.71305499600133</v>
+        <v>32.81990368299105</v>
       </c>
       <c r="C7" t="n">
-        <v>32.29863333063707</v>
+        <v>23.433659438832</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5445551999128</v>
+        <v>42.48472825017384</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45024</v>
+        <v>45031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B8" t="n">
-        <v>35.45857421029572</v>
+        <v>29.7839256094082</v>
       </c>
       <c r="C8" t="n">
-        <v>27.59917079715473</v>
+        <v>19.4338721405195</v>
       </c>
       <c r="D8" t="n">
-        <v>44.4257924879267</v>
+        <v>39.90945545033797</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45031</v>
+        <v>45038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="B9" t="n">
-        <v>31.69386261529566</v>
+        <v>29.1520207319682</v>
       </c>
       <c r="C9" t="n">
-        <v>22.47614187293818</v>
+        <v>19.22089315105233</v>
       </c>
       <c r="D9" t="n">
-        <v>40.70908794577484</v>
+        <v>38.8670697919156</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45038</v>
+        <v>45045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45047</v>
+        <v>45059</v>
       </c>
       <c r="B10" t="n">
-        <v>30.18940814280376</v>
+        <v>22.03504839299016</v>
       </c>
       <c r="C10" t="n">
-        <v>21.27699005250606</v>
+        <v>12.86069227926399</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93298146605154</v>
+        <v>32.11089632425622</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45045</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="B11" t="n">
-        <v>22.2741006098851</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12.92857224006805</v>
-      </c>
-      <c r="D11" t="n">
-        <v>31.45398296546001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="n">
         <v>45052</v>
       </c>
     </row>
@@ -737,25 +717,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>128.2861638427424</v>
+        <v>99.56961470208938</v>
       </c>
       <c r="C2" t="n">
-        <v>11.32634821302711</v>
+        <v>9.978457531206383</v>
       </c>
       <c r="D2" t="n">
-        <v>10.5099321301654</v>
+        <v>8.67223538295497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4204423062472913</v>
+        <v>0.3864600135252698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2287631111186957</v>
+        <v>0.2737327881447332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3405842367015883</v>
+        <v>0.3116746344096825</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -763,22 +743,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>22.21288739533312</v>
+        <v>18.9410330706942</v>
       </c>
       <c r="C3" t="n">
-        <v>4.713054996001333</v>
+        <v>4.352129716666795</v>
       </c>
       <c r="D3" t="n">
-        <v>4.713054996001333</v>
+        <v>4.352129716666795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1309181943333703</v>
+        <v>0.1208924921296332</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1309181943333703</v>
+        <v>0.1208924921296332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1228749134354511</v>
+        <v>0.1140015277325467</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -789,22 +769,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>227.3595527591104</v>
+        <v>208.9154928866718</v>
       </c>
       <c r="C4" t="n">
-        <v>15.07844662951427</v>
+        <v>14.45390925966646</v>
       </c>
       <c r="D4" t="n">
-        <v>15.07844662951427</v>
+        <v>14.45390925966646</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7180212680721083</v>
+        <v>0.6882813933174505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7180212680721083</v>
+        <v>0.6882813933174505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5283411697373513</v>
+        <v>0.5120605268692373</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -815,22 +795,22 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>125.5414645757455</v>
+        <v>194.0806787860844</v>
       </c>
       <c r="C5" t="n">
-        <v>11.20452875295278</v>
+        <v>13.93128417577089</v>
       </c>
       <c r="D5" t="n">
-        <v>11.20452875295278</v>
+        <v>13.93128417577089</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2667744941179232</v>
+        <v>0.3316972422802593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2667744941179232</v>
+        <v>0.3316972422802593</v>
       </c>
       <c r="G5" t="n">
-        <v>0.307835873880884</v>
+        <v>0.3976463393654371</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -841,22 +821,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>326.275020401824</v>
+        <v>309.6241013960333</v>
       </c>
       <c r="C6" t="n">
-        <v>18.06308446533493</v>
+        <v>17.59613882066271</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7996389205238</v>
+        <v>17.42353241475003</v>
       </c>
       <c r="E6" t="n">
-        <v>1.503584793590252</v>
+        <v>1.444861152176041</v>
       </c>
       <c r="F6" t="n">
-        <v>1.503584793590252</v>
+        <v>1.444861152176041</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8145199453672023</v>
+        <v>0.8075880443609508</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
